--- a/STEP2/MycoGenomesFilteredBUSCO.xlsx
+++ b/STEP2/MycoGenomesFilteredBUSCO.xlsx
@@ -6591,11 +6591,13 @@
   </sheetPr>
   <dimension ref="A1:W203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A179" activeCellId="0" sqref="A179"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.38"/>
